--- a/medicine/Enfance/André_Delabarre/André_Delabarre.xlsx
+++ b/medicine/Enfance/André_Delabarre/André_Delabarre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Delabarre</t>
+          <t>André_Delabarre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Delabarre, né le 4 octobre 1930 à Colombes, est un écrivain français, auteur de roman policier.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Delabarre</t>
+          <t>André_Delabarre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Delabarre est professeur d'histoire-géographie.
 En 1998, il publie son premier roman, Du sang sur les roses pour lequel il est lauréat du prix du Quai des Orfèvres 1999. Il fait paraître ensuite une série de romans policiers régionaux consacrée au Commissaire Barge.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Delabarre</t>
+          <t>André_Delabarre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,20 +560,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Commissaire Barge
-Du sang sur les roses, Éditions Fayard (1998)  (ISBN 2-213-60137-2)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Commissaire Barge</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Du sang sur les roses, Éditions Fayard (1998)  (ISBN 2-213-60137-2)
 L'Édi... tueur, Éditions du Bastberg, coll. « Les Polars régionaux » (2001)  (ISBN 2-913990-47-9)
 Le Bal des SDF, Éditions du Bastberg, coll. « Les Polars régionaux » (2002)  (ISBN 2-913990-76-2)
-On peut apporter son cadavre, Éditions du Bastberg, coll. « Les Polars régionaux » (2003)  (ISBN 2-84823-003-7)
-Autres romans
-C'était en automne 44, Éditions du Bastberg, coll. « Romans régionaux » (2008)  (ISBN 978-2-84823079-5)
-Atout cœur, Éditions du Bastberg, coll. « Les Polars régionaux » (2011)  (ISBN 978-2-35859-0259)
-4 limiers du paradis Éditions du Bastberg, 2008,  (ISBN 9782848230948)
-Littérature d'enfance et de jeunesse
-Le Loup à l'oreille cassée, Nathan, coll. « Nathan poche » no 158 (2008)  (ISBN 978-2-09-251737-6)
-Autre ouvrage
-Testez vos connaissances en histoire, Éditions Bordas, coll. « Contrôle continu des connaissances » (1985)  (ISBN 2-04-016297-6)</t>
+On peut apporter son cadavre, Éditions du Bastberg, coll. « Les Polars régionaux » (2003)  (ISBN 2-84823-003-7)</t>
         </is>
       </c>
     </row>
@@ -569,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Delabarre</t>
+          <t>André_Delabarre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,13 +598,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C'était en automne 44, Éditions du Bastberg, coll. « Romans régionaux » (2008)  (ISBN 978-2-84823079-5)
+Atout cœur, Éditions du Bastberg, coll. « Les Polars régionaux » (2011)  (ISBN 978-2-35859-0259)
+4 limiers du paradis Éditions du Bastberg, 2008,  (ISBN 9782848230948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Delabarre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Delabarre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Loup à l'oreille cassée, Nathan, coll. « Nathan poche » no 158 (2008)  (ISBN 978-2-09-251737-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Delabarre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Delabarre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Testez vos connaissances en histoire, Éditions Bordas, coll. « Contrôle continu des connaissances » (1985)  (ISBN 2-04-016297-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>André_Delabarre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Delabarre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix du Quai des Orfèvres 1999 pour Du sang sur les roses[1]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix du Quai des Orfèvres 1999 pour Du sang sur les roses</t>
         </is>
       </c>
     </row>
